--- a/facturesprestatairemois.xlsx
+++ b/facturesprestatairemois.xlsx
@@ -29,13 +29,13 @@
     <t xml:space="preserve"> status </t>
   </si>
   <si>
-    <t>2026-02-18</t>
+    <t>2026-02-16</t>
   </si>
   <si>
-    <t>NOURA</t>
+    <t>ASMA</t>
   </si>
   <si>
-    <t>Payée</t>
+    <t>Partiel</t>
   </si>
 </sst>
 </file>
@@ -108,13 +108,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>7</v>

--- a/facturesprestatairemois.xlsx
+++ b/facturesprestatairemois.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -29,22 +29,13 @@
     <t xml:space="preserve"> status </t>
   </si>
   <si>
-    <t>2026-02-16</t>
+    <t>2026-02-25</t>
   </si>
   <si>
-    <t>sfze</t>
-  </si>
-  <si>
-    <t>Payée</t>
+    <t>souhayb</t>
   </si>
   <si>
     <t>Partiel</t>
-  </si>
-  <si>
-    <t>2026-02-18</t>
-  </si>
-  <si>
-    <t>2026-02-23</t>
   </si>
 </sst>
 </file>
@@ -89,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,61 +114,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>200.0</v>
+        <v>250.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>200.0</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>300.0</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
